--- a/public/data/atp-questions.xlsx
+++ b/public/data/atp-questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radu\Desktop\Projects\Web\DrpMap\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FEA2E6-97C3-46B3-974A-46DEA96AD37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36466EA3-E83C-4F7E-8ACC-59D42C6AAA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="425">
   <si>
     <t>Intrebare</t>
   </si>
@@ -234,9 +234,6 @@
     <t>Always</t>
   </si>
   <si>
-    <t>because it runs faster</t>
-  </si>
-  <si>
     <t>it does not matter</t>
   </si>
   <si>
@@ -246,9 +243,6 @@
     <t>when iterative implementation is too complicated and recursive implementation is very simple</t>
   </si>
   <si>
-    <t>because it uses less computing</t>
-  </si>
-  <si>
     <t>['f']</t>
   </si>
   <si>
@@ -286,24 +280,6 @@
   </si>
   <si>
     <t>they are designed for best case scenarios</t>
-  </si>
-  <si>
-    <t>Consider the graph G=(V, E) where V={1,2,3,4,5,6,7,8,9,10} and E={(1,2), (1,4), (1,6), (2,4), (2,5), (3,8), (3,10), (4,5), (4,6), (4,7), (5,7), (7,8), (7,9), (8,9), (9,10)}.If 3 is the initial vertex, which of the following is the correct breadth first traversing order:</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
   <si>
     <t>Best complexity for a general sorting algorithm is:</t>
@@ -473,21 +449,6 @@
 ```</t>
   </si>
   <si>
-    <t>*****</t>
-  </si>
-  <si>
-    <t>+++++</t>
-  </si>
-  <si>
-    <t>****+</t>
-  </si>
-  <si>
-    <t>*****+++++</t>
-  </si>
-  <si>
-    <t>*+++++</t>
-  </si>
-  <si>
     <t>images/8.png</t>
   </si>
   <si>
@@ -584,24 +545,9 @@
     <t>Which of the following is not a data access method for files</t>
   </si>
   <si>
-    <t>Direct</t>
-  </si>
-  <si>
-    <t>by alpha-numerical key</t>
-  </si>
-  <si>
-    <t>by relative number</t>
-  </si>
-  <si>
     <t>Sequential</t>
   </si>
   <si>
-    <t>by position</t>
-  </si>
-  <si>
-    <t>['h']</t>
-  </si>
-  <si>
     <t>Which of the following is not a file organization method:</t>
   </si>
   <si>
@@ -626,12 +572,6 @@
     <t>An external data structure</t>
   </si>
   <si>
-    <t>A thin</t>
-  </si>
-  <si>
-    <t>flat or rounded metal tool with rough surfaces for rubbing wooden or metal objects to make them smooth or to change their shape</t>
-  </si>
-  <si>
     <t>An instrument used to finish rough finger nails</t>
   </si>
   <si>
@@ -653,9 +593,6 @@
     <t>Which of the following are not typical processing operations for binary data files: 1) populating the file, 2) depopulating a file, 3) search for one record, 4) skipping records, 5) selection of a group of records, 6) cleaning the records, 7) integral consultation, 8) cleaning the file, 9) adding records, 10) changing records, 11) deleting records?</t>
   </si>
   <si>
-    <t>['g']</t>
-  </si>
-  <si>
     <t>General processing flow for working with a data file does not include:</t>
   </si>
   <si>
@@ -1329,13 +1266,64 @@
   </si>
   <si>
     <t>deletion of records can not be reversed</t>
+  </si>
+  <si>
+    <t>Consider the graph G=(V, E) where V={1,2,3,4,5,6,7,8,9,10} and E={(1,2), (1,4), (1,6), (2,4), (2,5), (3,8), (3,10), (4,5), (4,6), (4,7), (5,7), (7,8), (7,9), (8,9), (9,10)}.If 7 is the initial vertex, which of the following is the correct breadth first traversing order:</t>
+  </si>
+  <si>
+    <t>2, 4, 6, 8, 11</t>
+  </si>
+  <si>
+    <t>None of the answers</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>2,4,6,8 10</t>
+  </si>
+  <si>
+    <t>Direct, by alpha-numerical key</t>
+  </si>
+  <si>
+    <t>Direct, by any field value</t>
+  </si>
+  <si>
+    <t>Direct, by relative number</t>
+  </si>
+  <si>
+    <t>Direct, by position</t>
+  </si>
+  <si>
+    <t>Always because it runs faster</t>
+  </si>
+  <si>
+    <t>Always because it uses less computing</t>
+  </si>
+  <si>
+    <t>`*****`</t>
+  </si>
+  <si>
+    <t>`+++++`</t>
+  </si>
+  <si>
+    <t>`****+`</t>
+  </si>
+  <si>
+    <t>`*****+++++`</t>
+  </si>
+  <si>
+    <t>`*+++++`</t>
+  </si>
+  <si>
+    <t>A thin flat or rounded metal tool with rough surfaces for rubbing wooden or metal objects to make them smooth or to change their shape</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1347,6 +1335,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1408,7 +1402,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1692,8 +1686,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="H28" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1803,7 +1797,7 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
@@ -1944,48 +1938,42 @@
         <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>417</v>
       </c>
       <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
         <v>66</v>
       </c>
-      <c r="E10" t="s">
-        <v>67</v>
-      </c>
       <c r="F10" t="s">
+        <v>418</v>
+      </c>
+      <c r="G10" t="s">
         <v>68</v>
       </c>
-      <c r="G10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" t="s">
-        <v>70</v>
-      </c>
       <c r="J10" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
         <v>72</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>73</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>74</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>75</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" t="s">
-        <v>77</v>
       </c>
       <c r="J11" t="s">
         <v>50</v>
@@ -1993,22 +1981,22 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
         <v>78</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>79</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>80</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>81</v>
-      </c>
-      <c r="E12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" t="s">
-        <v>83</v>
       </c>
       <c r="J12" t="s">
         <v>43</v>
@@ -2016,22 +2004,22 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>408</v>
       </c>
       <c r="B13" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="C13" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="D13" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="E13" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="F13" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="J13" t="s">
         <v>24</v>
@@ -2039,22 +2027,22 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s">
         <v>50</v>
@@ -2062,22 +2050,22 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="J15" t="s">
         <v>31</v>
@@ -2085,22 +2073,22 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="J16" t="s">
         <v>43</v>
@@ -2108,22 +2096,22 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
         <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J17" t="s">
         <v>43</v>
@@ -2131,48 +2119,48 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="C18" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="D18" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="E18" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="F18" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="J18" t="s">
         <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="J19" t="s">
         <v>13</v>
@@ -2180,22 +2168,22 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="F20" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="J20" t="s">
         <v>43</v>
@@ -2203,22 +2191,22 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F21" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J21" t="s">
         <v>50</v>
@@ -2226,22 +2214,22 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="J22" t="s">
         <v>50</v>
@@ -2249,22 +2237,22 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F23" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="J23" t="s">
         <v>31</v>
@@ -2272,22 +2260,22 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F24" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J24" t="s">
         <v>43</v>
@@ -2295,48 +2283,48 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>419</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>420</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>421</v>
       </c>
       <c r="E25" t="s">
-        <v>146</v>
+        <v>422</v>
       </c>
       <c r="F25" t="s">
-        <v>147</v>
+        <v>423</v>
       </c>
       <c r="J25" t="s">
         <v>50</v>
       </c>
       <c r="K25" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="E26" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="F26" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="J26" t="s">
         <v>13</v>
@@ -2365,27 +2353,27 @@
         <v>43</v>
       </c>
       <c r="K27" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B28" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C28" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="F28" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="J28" t="s">
         <v>43</v>
@@ -2393,22 +2381,22 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B29" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C29" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="D29" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F29" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="J29" t="s">
         <v>43</v>
@@ -2416,22 +2404,22 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B30" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="D30" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="E30" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F30" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="J30" t="s">
         <v>24</v>
@@ -2439,22 +2427,22 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B31" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D31" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E31" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F31" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="J31" t="s">
         <v>50</v>
@@ -2462,54 +2450,42 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B32" t="s">
-        <v>180</v>
+        <v>413</v>
       </c>
       <c r="C32" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D32" t="s">
-        <v>180</v>
-      </c>
-      <c r="E32" t="s">
-        <v>182</v>
-      </c>
-      <c r="F32" t="s">
-        <v>183</v>
-      </c>
-      <c r="G32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H32" t="s">
-        <v>184</v>
-      </c>
-      <c r="I32" t="s">
-        <v>180</v>
+        <v>415</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="J32" t="s">
-        <v>185</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B33" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="C33" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="D33" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="E33" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="F33" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="J33" t="s">
         <v>43</v>
@@ -2517,25 +2493,22 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="B34" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="C34" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="D34" t="s">
-        <v>194</v>
+        <v>424</v>
       </c>
       <c r="E34" t="s">
-        <v>195</v>
+        <v>121</v>
       </c>
       <c r="F34" t="s">
-        <v>129</v>
-      </c>
-      <c r="G34" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="J34" t="s">
         <v>13</v>
@@ -2543,19 +2516,19 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="B35" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="C35" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="D35" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="E35" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="F35" t="s">
         <v>40</v>
@@ -2566,54 +2539,42 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>409</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>410</v>
       </c>
       <c r="D36" t="s">
-        <v>89</v>
+        <v>411</v>
       </c>
       <c r="E36" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36" t="s">
-        <v>85</v>
-      </c>
-      <c r="H36" t="s">
-        <v>88</v>
-      </c>
-      <c r="I36" t="s">
-        <v>89</v>
+        <v>412</v>
       </c>
       <c r="J36" t="s">
-        <v>203</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="B37" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="C37" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="D37" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="E37" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="F37" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="J37" t="s">
         <v>31</v>
@@ -2621,28 +2582,28 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="B38" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="C38" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="D38" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="E38" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="F38" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="G38" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="H38" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="J38" t="s">
         <v>31</v>
@@ -2650,22 +2611,22 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="B39" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="C39" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="D39" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="E39" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F39" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="J39" t="s">
         <v>13</v>
@@ -2673,22 +2634,22 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="B40" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="C40" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D40" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="E40" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="F40" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="J40" t="s">
         <v>50</v>
@@ -2696,22 +2657,22 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="B41" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C41" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="D41" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="E41" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="F41" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="J41" t="s">
         <v>24</v>
@@ -2719,19 +2680,19 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="B42" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C42" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="D42" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="E42" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="F42" t="s">
         <v>34</v>
@@ -2742,22 +2703,22 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="B43" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="C43" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="D43" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="E43" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="F43" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="J43" t="s">
         <v>50</v>
@@ -2765,22 +2726,22 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="B44" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="C44" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="D44" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="E44" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="F44" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="J44" t="s">
         <v>43</v>
@@ -2788,22 +2749,22 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="B45" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="C45" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="D45" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="E45" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="F45" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="J45" t="s">
         <v>24</v>
@@ -2811,22 +2772,22 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="B46" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="C46" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="D46" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="E46" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="F46" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="J46" t="s">
         <v>24</v>
@@ -2834,22 +2795,22 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="B47" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="C47" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="D47" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E47" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="F47" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="J47" t="s">
         <v>31</v>
@@ -2857,626 +2818,591 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="B48" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="C48" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="D48" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="E48" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F48" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="J48" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="B49" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="C49" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="D49" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="E49" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="F49" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="J49" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="B50" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="C50" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="D50" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E50" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="F50" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="J50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="B51" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="C51" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="D51" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E51" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="F51" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="J51" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C52" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="D52" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="E52" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="F52" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="G52" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="J52" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="B53" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="C53" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="D53" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="E53" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="F53" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="G53" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="H53" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="J53" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="B54" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="C54" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="D54" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="E54" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="F54" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="J54" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="B55" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="C55" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="D55" t="s">
         <v>40</v>
       </c>
       <c r="E55" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="F55" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="J55" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="B56" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="C56" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="D56" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="E56" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="F56" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="J56" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="B57" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="C57" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="D57" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="E57" t="s">
         <v>64</v>
       </c>
       <c r="F57" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="J57" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B58" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C58" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="D58" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="E58" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="F58" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="J58" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="B59" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="C59" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="D59" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="E59" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="F59" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="G59" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="H59" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="I59" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="J59" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="B60" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="C60" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="D60" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="E60" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="F60" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="J60" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="B61" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="C61" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="D61" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="E61" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="F61" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="G61" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="J61" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>352</v>
+      </c>
+      <c r="B62" t="s">
+        <v>353</v>
+      </c>
+      <c r="C62" t="s">
+        <v>354</v>
+      </c>
+      <c r="D62" t="s">
+        <v>355</v>
+      </c>
+      <c r="E62" t="s">
+        <v>356</v>
+      </c>
+      <c r="F62" t="s">
+        <v>357</v>
+      </c>
+      <c r="J62" t="s">
         <v>13</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="D63" s="3" t="s">
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>358</v>
+      </c>
+      <c r="B63" t="s">
+        <v>359</v>
+      </c>
+      <c r="C63" t="s">
+        <v>360</v>
+      </c>
+      <c r="D63" t="s">
+        <v>361</v>
+      </c>
+      <c r="E63" t="s">
+        <v>362</v>
+      </c>
+      <c r="F63" t="s">
+        <v>363</v>
+      </c>
+      <c r="G63" t="s">
+        <v>364</v>
+      </c>
+      <c r="J63" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>382</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="B64" t="s">
         <v>383</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="C64" t="s">
         <v>384</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="D64" t="s">
         <v>385</v>
       </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
+      <c r="E64" t="s">
+        <v>386</v>
+      </c>
+      <c r="F64" t="s">
+        <v>387</v>
+      </c>
+      <c r="G64" t="s">
+        <v>388</v>
+      </c>
+      <c r="J64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>389</v>
+      </c>
+      <c r="B65" t="s">
+        <v>390</v>
+      </c>
+      <c r="C65" t="s">
+        <v>391</v>
+      </c>
+      <c r="D65" t="s">
+        <v>392</v>
+      </c>
+      <c r="E65" t="s">
+        <v>393</v>
+      </c>
+      <c r="F65" t="s">
+        <v>394</v>
+      </c>
+      <c r="G65" t="s">
+        <v>392</v>
+      </c>
+      <c r="J65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>395</v>
+      </c>
+      <c r="B66" t="s">
+        <v>396</v>
+      </c>
+      <c r="C66" t="s">
+        <v>397</v>
+      </c>
+      <c r="D66" t="s">
+        <v>398</v>
+      </c>
+      <c r="E66" t="s">
+        <v>399</v>
+      </c>
+      <c r="F66" t="s">
+        <v>400</v>
+      </c>
+      <c r="G66" t="s">
+        <v>401</v>
+      </c>
+      <c r="J66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>288</v>
+      </c>
+      <c r="B67" t="s">
+        <v>289</v>
+      </c>
+      <c r="C67" t="s">
+        <v>290</v>
+      </c>
+      <c r="D67" t="s">
+        <v>291</v>
+      </c>
+      <c r="E67" t="s">
+        <v>292</v>
+      </c>
+      <c r="F67" t="s">
+        <v>293</v>
+      </c>
+      <c r="J67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>402</v>
+      </c>
+      <c r="B68" t="s">
         <v>403</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="C68" t="s">
         <v>404</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="D68" t="s">
         <v>405</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="E68" t="s">
         <v>406</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="F68" t="s">
         <v>407</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3" t="s">
+      <c r="J68" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>245</v>
+      </c>
+      <c r="B69" t="s">
+        <v>246</v>
+      </c>
+      <c r="C69" t="s">
+        <v>247</v>
+      </c>
+      <c r="D69" t="s">
+        <v>248</v>
+      </c>
+      <c r="E69" t="s">
+        <v>249</v>
+      </c>
+      <c r="F69" t="s">
+        <v>250</v>
+      </c>
+      <c r="J69" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>256</v>
+      </c>
+      <c r="B70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C70" t="s">
+        <v>258</v>
+      </c>
+      <c r="D70" t="s">
+        <v>259</v>
+      </c>
+      <c r="E70" t="s">
+        <v>260</v>
+      </c>
+      <c r="F70" t="s">
+        <v>259</v>
+      </c>
+      <c r="J70" t="s">
         <v>43</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3" t="s">
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>267</v>
+      </c>
+      <c r="B71" t="s">
+        <v>268</v>
+      </c>
+      <c r="C71" t="s">
+        <v>269</v>
+      </c>
+      <c r="D71" t="s">
+        <v>270</v>
+      </c>
+      <c r="E71" t="s">
+        <v>271</v>
+      </c>
+      <c r="F71" t="s">
+        <v>272</v>
+      </c>
+      <c r="G71" t="s">
+        <v>273</v>
+      </c>
+      <c r="J71" t="s">
         <v>31</v>
       </c>
-      <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K71" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/data/atp-questions.xlsx
+++ b/public/data/atp-questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radu\Desktop\Projects\Web\DrpMap\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36466EA3-E83C-4F7E-8ACC-59D42C6AAA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD73548-A42B-4AB3-A150-7083970FBF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="422">
   <si>
     <t>Intrebare</t>
   </si>
@@ -614,21 +614,9 @@
     <t>For a binary data file, with sequential organization, records can be deleted:</t>
   </si>
   <si>
-    <t>After the file is closed</t>
-  </si>
-  <si>
-    <t>to avoid corrupting the data.</t>
-  </si>
-  <si>
     <t>This operation is not defined for this type of file organization.</t>
   </si>
   <si>
-    <t>After the other operations are completed</t>
-  </si>
-  <si>
-    <t>but before closing the file.</t>
-  </si>
-  <si>
     <t>When they are no longer needed.</t>
   </si>
   <si>
@@ -1043,12 +1031,6 @@
     <t>they all finish sorting faster than we can see.</t>
   </si>
   <si>
-    <t>bubble sort</t>
-  </si>
-  <si>
-    <t>because this is the one I know</t>
-  </si>
-  <si>
     <t>merge sort / heap sort / quick sort because they have the lowest complexity</t>
   </si>
   <si>
@@ -1317,6 +1299,15 @@
   </si>
   <si>
     <t>A thin flat or rounded metal tool with rough surfaces for rubbing wooden or metal objects to make them smooth or to change their shape</t>
+  </si>
+  <si>
+    <t>After the file is closed to avoid corrupting the data.</t>
+  </si>
+  <si>
+    <t>After the other operations are completed but before closing the file.</t>
+  </si>
+  <si>
+    <t>bubble sort because this is the one I know</t>
   </si>
 </sst>
 </file>
@@ -1686,8 +1677,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H28" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="E37" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1797,7 +1788,7 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
@@ -1938,7 +1929,7 @@
         <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D10" t="s">
         <v>67</v>
@@ -1947,7 +1938,7 @@
         <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G10" t="s">
         <v>68</v>
@@ -2004,22 +1995,22 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B13" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C13" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D13" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E13" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F13" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="J13" t="s">
         <v>24</v>
@@ -2122,19 +2113,19 @@
         <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C18" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D18" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E18" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F18" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="J18" t="s">
         <v>24</v>
@@ -2174,16 +2165,16 @@
         <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D20" t="s">
         <v>113</v>
       </c>
       <c r="E20" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F20" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="J20" t="s">
         <v>43</v>
@@ -2286,19 +2277,19 @@
         <v>134</v>
       </c>
       <c r="B25" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C25" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D25" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="E25" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="F25" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="J25" t="s">
         <v>50</v>
@@ -2453,16 +2444,16 @@
         <v>166</v>
       </c>
       <c r="B32" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C32" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D32" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="J32" t="s">
         <v>13</v>
@@ -2502,7 +2493,7 @@
         <v>175</v>
       </c>
       <c r="D34" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="E34" t="s">
         <v>121</v>
@@ -2542,16 +2533,16 @@
         <v>182</v>
       </c>
       <c r="B36" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C36" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D36" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="E36" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="J36" t="s">
         <v>24</v>
@@ -2585,25 +2576,19 @@
         <v>189</v>
       </c>
       <c r="B38" t="s">
+        <v>419</v>
+      </c>
+      <c r="C38" t="s">
+        <v>420</v>
+      </c>
+      <c r="D38" t="s">
         <v>190</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>191</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>192</v>
-      </c>
-      <c r="E38" t="s">
-        <v>193</v>
-      </c>
-      <c r="F38" t="s">
-        <v>194</v>
-      </c>
-      <c r="G38" t="s">
-        <v>195</v>
-      </c>
-      <c r="H38" t="s">
-        <v>196</v>
       </c>
       <c r="J38" t="s">
         <v>31</v>
@@ -2611,22 +2596,22 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B39" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C39" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D39" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E39" t="s">
         <v>118</v>
       </c>
       <c r="F39" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J39" t="s">
         <v>13</v>
@@ -2634,22 +2619,22 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>198</v>
+      </c>
+      <c r="B40" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40" t="s">
+        <v>201</v>
+      </c>
+      <c r="E40" t="s">
         <v>202</v>
       </c>
-      <c r="B40" t="s">
+      <c r="F40" t="s">
         <v>203</v>
-      </c>
-      <c r="C40" t="s">
-        <v>204</v>
-      </c>
-      <c r="D40" t="s">
-        <v>205</v>
-      </c>
-      <c r="E40" t="s">
-        <v>206</v>
-      </c>
-      <c r="F40" t="s">
-        <v>207</v>
       </c>
       <c r="J40" t="s">
         <v>50</v>
@@ -2657,22 +2642,22 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>204</v>
+      </c>
+      <c r="B41" t="s">
+        <v>205</v>
+      </c>
+      <c r="C41" t="s">
+        <v>206</v>
+      </c>
+      <c r="D41" t="s">
+        <v>207</v>
+      </c>
+      <c r="E41" t="s">
         <v>208</v>
       </c>
-      <c r="B41" t="s">
+      <c r="F41" t="s">
         <v>209</v>
-      </c>
-      <c r="C41" t="s">
-        <v>210</v>
-      </c>
-      <c r="D41" t="s">
-        <v>211</v>
-      </c>
-      <c r="E41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F41" t="s">
-        <v>213</v>
       </c>
       <c r="J41" t="s">
         <v>24</v>
@@ -2680,19 +2665,19 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>210</v>
+      </c>
+      <c r="B42" t="s">
+        <v>211</v>
+      </c>
+      <c r="C42" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42" t="s">
+        <v>213</v>
+      </c>
+      <c r="E42" t="s">
         <v>214</v>
-      </c>
-      <c r="B42" t="s">
-        <v>215</v>
-      </c>
-      <c r="C42" t="s">
-        <v>216</v>
-      </c>
-      <c r="D42" t="s">
-        <v>217</v>
-      </c>
-      <c r="E42" t="s">
-        <v>218</v>
       </c>
       <c r="F42" t="s">
         <v>34</v>
@@ -2703,22 +2688,22 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>215</v>
+      </c>
+      <c r="B43" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" t="s">
+        <v>218</v>
+      </c>
+      <c r="E43" t="s">
         <v>219</v>
       </c>
-      <c r="B43" t="s">
+      <c r="F43" t="s">
         <v>220</v>
-      </c>
-      <c r="C43" t="s">
-        <v>221</v>
-      </c>
-      <c r="D43" t="s">
-        <v>222</v>
-      </c>
-      <c r="E43" t="s">
-        <v>223</v>
-      </c>
-      <c r="F43" t="s">
-        <v>224</v>
       </c>
       <c r="J43" t="s">
         <v>50</v>
@@ -2726,22 +2711,22 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>221</v>
+      </c>
+      <c r="B44" t="s">
+        <v>222</v>
+      </c>
+      <c r="C44" t="s">
+        <v>223</v>
+      </c>
+      <c r="D44" t="s">
+        <v>224</v>
+      </c>
+      <c r="E44" t="s">
         <v>225</v>
       </c>
-      <c r="B44" t="s">
+      <c r="F44" t="s">
         <v>226</v>
-      </c>
-      <c r="C44" t="s">
-        <v>227</v>
-      </c>
-      <c r="D44" t="s">
-        <v>228</v>
-      </c>
-      <c r="E44" t="s">
-        <v>229</v>
-      </c>
-      <c r="F44" t="s">
-        <v>230</v>
       </c>
       <c r="J44" t="s">
         <v>43</v>
@@ -2749,22 +2734,22 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B45" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C45" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D45" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E45" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F45" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J45" t="s">
         <v>24</v>
@@ -2772,22 +2757,22 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>230</v>
+      </c>
+      <c r="B46" t="s">
+        <v>231</v>
+      </c>
+      <c r="C46" t="s">
+        <v>232</v>
+      </c>
+      <c r="D46" t="s">
+        <v>233</v>
+      </c>
+      <c r="E46" t="s">
         <v>234</v>
       </c>
-      <c r="B46" t="s">
+      <c r="F46" t="s">
         <v>235</v>
-      </c>
-      <c r="C46" t="s">
-        <v>236</v>
-      </c>
-      <c r="D46" t="s">
-        <v>237</v>
-      </c>
-      <c r="E46" t="s">
-        <v>238</v>
-      </c>
-      <c r="F46" t="s">
-        <v>239</v>
       </c>
       <c r="J46" t="s">
         <v>24</v>
@@ -2795,22 +2780,22 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B47" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C47" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D47" t="s">
         <v>118</v>
       </c>
       <c r="E47" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F47" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J47" t="s">
         <v>31</v>
@@ -2818,22 +2803,22 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B48" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C48" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D48" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E48" t="s">
         <v>108</v>
       </c>
       <c r="F48" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J48" t="s">
         <v>24</v>
@@ -2841,22 +2826,22 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>257</v>
+      </c>
+      <c r="B49" t="s">
+        <v>258</v>
+      </c>
+      <c r="C49" t="s">
+        <v>259</v>
+      </c>
+      <c r="D49" t="s">
+        <v>260</v>
+      </c>
+      <c r="E49" t="s">
         <v>261</v>
       </c>
-      <c r="B49" t="s">
+      <c r="F49" t="s">
         <v>262</v>
-      </c>
-      <c r="C49" t="s">
-        <v>263</v>
-      </c>
-      <c r="D49" t="s">
-        <v>264</v>
-      </c>
-      <c r="E49" t="s">
-        <v>265</v>
-      </c>
-      <c r="F49" t="s">
-        <v>266</v>
       </c>
       <c r="J49" t="s">
         <v>13</v>
@@ -2864,22 +2849,22 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>270</v>
+      </c>
+      <c r="B50" t="s">
+        <v>271</v>
+      </c>
+      <c r="C50" t="s">
+        <v>272</v>
+      </c>
+      <c r="D50" t="s">
+        <v>273</v>
+      </c>
+      <c r="E50" t="s">
         <v>274</v>
       </c>
-      <c r="B50" t="s">
+      <c r="F50" t="s">
         <v>275</v>
-      </c>
-      <c r="C50" t="s">
-        <v>276</v>
-      </c>
-      <c r="D50" t="s">
-        <v>277</v>
-      </c>
-      <c r="E50" t="s">
-        <v>278</v>
-      </c>
-      <c r="F50" t="s">
-        <v>279</v>
       </c>
       <c r="J50" t="s">
         <v>50</v>
@@ -2887,22 +2872,22 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B51" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C51" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D51" t="s">
         <v>108</v>
       </c>
       <c r="E51" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F51" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="J51" t="s">
         <v>13</v>
@@ -2910,25 +2895,25 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B52" t="s">
         <v>118</v>
       </c>
       <c r="C52" t="s">
+        <v>279</v>
+      </c>
+      <c r="D52" t="s">
+        <v>280</v>
+      </c>
+      <c r="E52" t="s">
+        <v>281</v>
+      </c>
+      <c r="F52" t="s">
+        <v>282</v>
+      </c>
+      <c r="G52" t="s">
         <v>283</v>
-      </c>
-      <c r="D52" t="s">
-        <v>284</v>
-      </c>
-      <c r="E52" t="s">
-        <v>285</v>
-      </c>
-      <c r="F52" t="s">
-        <v>286</v>
-      </c>
-      <c r="G52" t="s">
-        <v>287</v>
       </c>
       <c r="J52" t="s">
         <v>24</v>
@@ -2936,28 +2921,28 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>290</v>
+      </c>
+      <c r="B53" t="s">
+        <v>291</v>
+      </c>
+      <c r="C53" t="s">
+        <v>292</v>
+      </c>
+      <c r="D53" t="s">
+        <v>293</v>
+      </c>
+      <c r="E53" t="s">
         <v>294</v>
       </c>
-      <c r="B53" t="s">
+      <c r="F53" t="s">
         <v>295</v>
       </c>
-      <c r="C53" t="s">
+      <c r="G53" t="s">
         <v>296</v>
       </c>
-      <c r="D53" t="s">
+      <c r="H53" t="s">
         <v>297</v>
-      </c>
-      <c r="E53" t="s">
-        <v>298</v>
-      </c>
-      <c r="F53" t="s">
-        <v>299</v>
-      </c>
-      <c r="G53" t="s">
-        <v>300</v>
-      </c>
-      <c r="H53" t="s">
-        <v>301</v>
       </c>
       <c r="J53" t="s">
         <v>50</v>
@@ -2965,22 +2950,22 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>298</v>
+      </c>
+      <c r="B54" t="s">
+        <v>299</v>
+      </c>
+      <c r="C54" t="s">
+        <v>300</v>
+      </c>
+      <c r="D54" t="s">
+        <v>301</v>
+      </c>
+      <c r="E54" t="s">
         <v>302</v>
       </c>
-      <c r="B54" t="s">
+      <c r="F54" t="s">
         <v>303</v>
-      </c>
-      <c r="C54" t="s">
-        <v>304</v>
-      </c>
-      <c r="D54" t="s">
-        <v>305</v>
-      </c>
-      <c r="E54" t="s">
-        <v>306</v>
-      </c>
-      <c r="F54" t="s">
-        <v>307</v>
       </c>
       <c r="J54" t="s">
         <v>13</v>
@@ -2988,22 +2973,22 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B55" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C55" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D55" t="s">
         <v>40</v>
       </c>
       <c r="E55" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F55" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J55" t="s">
         <v>31</v>
@@ -3011,22 +2996,22 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>309</v>
+      </c>
+      <c r="B56" t="s">
+        <v>310</v>
+      </c>
+      <c r="C56" t="s">
+        <v>311</v>
+      </c>
+      <c r="D56" t="s">
+        <v>312</v>
+      </c>
+      <c r="E56" t="s">
         <v>313</v>
       </c>
-      <c r="B56" t="s">
+      <c r="F56" t="s">
         <v>314</v>
-      </c>
-      <c r="C56" t="s">
-        <v>315</v>
-      </c>
-      <c r="D56" t="s">
-        <v>316</v>
-      </c>
-      <c r="E56" t="s">
-        <v>317</v>
-      </c>
-      <c r="F56" t="s">
-        <v>318</v>
       </c>
       <c r="J56" t="s">
         <v>31</v>
@@ -3034,22 +3019,22 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B57" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C57" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D57" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E57" t="s">
         <v>64</v>
       </c>
       <c r="F57" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="J57" t="s">
         <v>24</v>
@@ -3057,22 +3042,22 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>320</v>
+      </c>
+      <c r="B58" t="s">
+        <v>321</v>
+      </c>
+      <c r="C58" t="s">
+        <v>322</v>
+      </c>
+      <c r="D58" t="s">
+        <v>323</v>
+      </c>
+      <c r="E58" t="s">
         <v>324</v>
       </c>
-      <c r="B58" t="s">
+      <c r="F58" t="s">
         <v>325</v>
-      </c>
-      <c r="C58" t="s">
-        <v>326</v>
-      </c>
-      <c r="D58" t="s">
-        <v>327</v>
-      </c>
-      <c r="E58" t="s">
-        <v>328</v>
-      </c>
-      <c r="F58" t="s">
-        <v>329</v>
       </c>
       <c r="J58" t="s">
         <v>24</v>
@@ -3080,31 +3065,28 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>326</v>
+      </c>
+      <c r="B59" t="s">
+        <v>327</v>
+      </c>
+      <c r="C59" t="s">
+        <v>328</v>
+      </c>
+      <c r="D59" t="s">
+        <v>421</v>
+      </c>
+      <c r="F59" t="s">
+        <v>329</v>
+      </c>
+      <c r="G59" t="s">
         <v>330</v>
       </c>
-      <c r="B59" t="s">
+      <c r="H59" t="s">
         <v>331</v>
       </c>
-      <c r="C59" t="s">
+      <c r="I59" t="s">
         <v>332</v>
-      </c>
-      <c r="D59" t="s">
-        <v>333</v>
-      </c>
-      <c r="E59" t="s">
-        <v>334</v>
-      </c>
-      <c r="F59" t="s">
-        <v>335</v>
-      </c>
-      <c r="G59" t="s">
-        <v>336</v>
-      </c>
-      <c r="H59" t="s">
-        <v>337</v>
-      </c>
-      <c r="I59" t="s">
-        <v>338</v>
       </c>
       <c r="J59" t="s">
         <v>43</v>
@@ -3112,22 +3094,22 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B60" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C60" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D60" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E60" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F60" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="J60" t="s">
         <v>50</v>
@@ -3135,25 +3117,25 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>339</v>
+      </c>
+      <c r="B61" t="s">
+        <v>340</v>
+      </c>
+      <c r="C61" t="s">
+        <v>341</v>
+      </c>
+      <c r="D61" t="s">
+        <v>342</v>
+      </c>
+      <c r="E61" t="s">
+        <v>343</v>
+      </c>
+      <c r="F61" t="s">
+        <v>344</v>
+      </c>
+      <c r="G61" t="s">
         <v>345</v>
-      </c>
-      <c r="B61" t="s">
-        <v>346</v>
-      </c>
-      <c r="C61" t="s">
-        <v>347</v>
-      </c>
-      <c r="D61" t="s">
-        <v>348</v>
-      </c>
-      <c r="E61" t="s">
-        <v>349</v>
-      </c>
-      <c r="F61" t="s">
-        <v>350</v>
-      </c>
-      <c r="G61" t="s">
-        <v>351</v>
       </c>
       <c r="J61" t="s">
         <v>50</v>
@@ -3161,22 +3143,22 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B62" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C62" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D62" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E62" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F62" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="J62" t="s">
         <v>13</v>
@@ -3184,25 +3166,25 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>352</v>
+      </c>
+      <c r="B63" t="s">
+        <v>353</v>
+      </c>
+      <c r="C63" t="s">
+        <v>354</v>
+      </c>
+      <c r="D63" t="s">
+        <v>355</v>
+      </c>
+      <c r="E63" t="s">
+        <v>356</v>
+      </c>
+      <c r="F63" t="s">
+        <v>357</v>
+      </c>
+      <c r="G63" t="s">
         <v>358</v>
-      </c>
-      <c r="B63" t="s">
-        <v>359</v>
-      </c>
-      <c r="C63" t="s">
-        <v>360</v>
-      </c>
-      <c r="D63" t="s">
-        <v>361</v>
-      </c>
-      <c r="E63" t="s">
-        <v>362</v>
-      </c>
-      <c r="F63" t="s">
-        <v>363</v>
-      </c>
-      <c r="G63" t="s">
-        <v>364</v>
       </c>
       <c r="J63" t="s">
         <v>69</v>
@@ -3210,25 +3192,25 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>376</v>
+      </c>
+      <c r="B64" t="s">
+        <v>377</v>
+      </c>
+      <c r="C64" t="s">
+        <v>378</v>
+      </c>
+      <c r="D64" t="s">
+        <v>379</v>
+      </c>
+      <c r="E64" t="s">
+        <v>380</v>
+      </c>
+      <c r="F64" t="s">
+        <v>381</v>
+      </c>
+      <c r="G64" t="s">
         <v>382</v>
-      </c>
-      <c r="B64" t="s">
-        <v>383</v>
-      </c>
-      <c r="C64" t="s">
-        <v>384</v>
-      </c>
-      <c r="D64" t="s">
-        <v>385</v>
-      </c>
-      <c r="E64" t="s">
-        <v>386</v>
-      </c>
-      <c r="F64" t="s">
-        <v>387</v>
-      </c>
-      <c r="G64" t="s">
-        <v>388</v>
       </c>
       <c r="J64" t="s">
         <v>43</v>
@@ -3236,25 +3218,25 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B65" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C65" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D65" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="E65" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F65" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G65" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="J65" t="s">
         <v>24</v>
@@ -3262,25 +3244,25 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>389</v>
+      </c>
+      <c r="B66" t="s">
+        <v>390</v>
+      </c>
+      <c r="C66" t="s">
+        <v>391</v>
+      </c>
+      <c r="D66" t="s">
+        <v>392</v>
+      </c>
+      <c r="E66" t="s">
+        <v>393</v>
+      </c>
+      <c r="F66" t="s">
+        <v>394</v>
+      </c>
+      <c r="G66" t="s">
         <v>395</v>
-      </c>
-      <c r="B66" t="s">
-        <v>396</v>
-      </c>
-      <c r="C66" t="s">
-        <v>397</v>
-      </c>
-      <c r="D66" t="s">
-        <v>398</v>
-      </c>
-      <c r="E66" t="s">
-        <v>399</v>
-      </c>
-      <c r="F66" t="s">
-        <v>400</v>
-      </c>
-      <c r="G66" t="s">
-        <v>401</v>
       </c>
       <c r="J66" t="s">
         <v>50</v>
@@ -3288,22 +3270,22 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>284</v>
+      </c>
+      <c r="B67" t="s">
+        <v>285</v>
+      </c>
+      <c r="C67" t="s">
+        <v>286</v>
+      </c>
+      <c r="D67" t="s">
+        <v>287</v>
+      </c>
+      <c r="E67" t="s">
         <v>288</v>
       </c>
-      <c r="B67" t="s">
+      <c r="F67" t="s">
         <v>289</v>
-      </c>
-      <c r="C67" t="s">
-        <v>290</v>
-      </c>
-      <c r="D67" t="s">
-        <v>291</v>
-      </c>
-      <c r="E67" t="s">
-        <v>292</v>
-      </c>
-      <c r="F67" t="s">
-        <v>293</v>
       </c>
       <c r="J67" t="s">
         <v>31</v>
@@ -3311,22 +3293,22 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B68" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C68" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D68" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="E68" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F68" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="J68" t="s">
         <v>50</v>
@@ -3334,22 +3316,22 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>241</v>
+      </c>
+      <c r="B69" t="s">
+        <v>242</v>
+      </c>
+      <c r="C69" t="s">
+        <v>243</v>
+      </c>
+      <c r="D69" t="s">
+        <v>244</v>
+      </c>
+      <c r="E69" t="s">
         <v>245</v>
       </c>
-      <c r="B69" t="s">
+      <c r="F69" t="s">
         <v>246</v>
-      </c>
-      <c r="C69" t="s">
-        <v>247</v>
-      </c>
-      <c r="D69" t="s">
-        <v>248</v>
-      </c>
-      <c r="E69" t="s">
-        <v>249</v>
-      </c>
-      <c r="F69" t="s">
-        <v>250</v>
       </c>
       <c r="J69" t="s">
         <v>31</v>
@@ -3357,22 +3339,22 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>252</v>
+      </c>
+      <c r="B70" t="s">
+        <v>253</v>
+      </c>
+      <c r="C70" t="s">
+        <v>254</v>
+      </c>
+      <c r="D70" t="s">
+        <v>255</v>
+      </c>
+      <c r="E70" t="s">
         <v>256</v>
       </c>
-      <c r="B70" t="s">
-        <v>257</v>
-      </c>
-      <c r="C70" t="s">
-        <v>258</v>
-      </c>
-      <c r="D70" t="s">
-        <v>259</v>
-      </c>
-      <c r="E70" t="s">
-        <v>260</v>
-      </c>
       <c r="F70" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J70" t="s">
         <v>43</v>
@@ -3380,25 +3362,25 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>263</v>
+      </c>
+      <c r="B71" t="s">
+        <v>264</v>
+      </c>
+      <c r="C71" t="s">
+        <v>265</v>
+      </c>
+      <c r="D71" t="s">
+        <v>266</v>
+      </c>
+      <c r="E71" t="s">
         <v>267</v>
       </c>
-      <c r="B71" t="s">
+      <c r="F71" t="s">
         <v>268</v>
       </c>
-      <c r="C71" t="s">
+      <c r="G71" t="s">
         <v>269</v>
-      </c>
-      <c r="D71" t="s">
-        <v>270</v>
-      </c>
-      <c r="E71" t="s">
-        <v>271</v>
-      </c>
-      <c r="F71" t="s">
-        <v>272</v>
-      </c>
-      <c r="G71" t="s">
-        <v>273</v>
       </c>
       <c r="J71" t="s">
         <v>31</v>
